--- a/protein_prod/data/benchtop.xlsx
+++ b/protein_prod/data/benchtop.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynma01/Documents/Projects/lab_reports/protein_prod/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B830B7-3783-264A-A958-FBBB2373AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0B526-9D41-0346-8170-878C6346A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{95D0D9C8-113D-3241-A9E4-248D78FBFC30}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{95D0D9C8-113D-3241-A9E4-248D78FBFC30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,9 +47,6 @@
     <t>RPM</t>
   </si>
   <si>
-    <t>Disolved Oxygen</t>
-  </si>
-  <si>
     <t>OD600</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Carbon Source (ng/dL)</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +450,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -477,25 +476,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -517,7 +516,6 @@
       <c r="F2" s="2">
         <v>83.5</v>
       </c>
-      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -547,7 +545,7 @@
       <c r="I3">
         <v>547</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
@@ -583,7 +581,7 @@
       <c r="I4">
         <v>576</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
@@ -619,7 +617,7 @@
       <c r="I5">
         <v>563</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
@@ -655,7 +653,7 @@
       <c r="I6">
         <v>580</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
@@ -691,7 +689,7 @@
       <c r="I7">
         <v>130</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
@@ -727,7 +725,7 @@
       <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
